--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thela\Documents\UAB\PROYECTO ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{072519F5-E3E4-4495-AE33-9537ACF1C4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71910D46-9564-48E9-BABD-5E6B6130B4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="3915" windowWidth="21735" windowHeight="13740" xr2:uid="{03B1BA98-3DB3-4E0C-8E19-90AC5F975C37}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{03B1BA98-3DB3-4E0C-8E19-90AC5F975C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>1000 v + 2000 aristas</t>
+    <t>2000 vertices + 5000 aristas</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2A1BE8-A67F-4D2B-89EE-33CEC85DCA4A}">
-  <dimension ref="B2:L5"/>
+  <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -476,80 +476,112 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>4.4530000000000004E-3</v>
+        <v>2.5660000000000001E-3</v>
       </c>
       <c r="D2" s="1">
-        <v>2.1749999999999999E-2</v>
+        <v>2.81E-3</v>
       </c>
       <c r="E2" s="1">
-        <v>6.6600000000000006E-2</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F2" s="1">
-        <v>3.73E-2</v>
+        <v>2.8E-3</v>
       </c>
       <c r="G2" s="1">
-        <v>2.8570000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+        <v>2.8670000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>2.9789999999999999E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>2.1579999999999998E-2</v>
+        <v>2.8479999999999998E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>6.8790000000000004E-2</v>
+        <v>2.8839999999999998E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>3.703E-2</v>
+        <v>2.784E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>2.9680000000000002E-2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>3.0660000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>4.5950000000000001E-3</v>
+        <v>2.3930000000000002E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>2.1860000000000001E-2</v>
+        <v>2.6840000000000002E-3</v>
       </c>
       <c r="E4" s="1">
-        <v>5.9790000000000003E-2</v>
+        <v>2.9260000000000002E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>3.073E-2</v>
+        <v>2.8679999999999999E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>2.9860000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>2.8709999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>SUM(B2:B4)/3</f>
-        <v>4.5493333333333332E-3</v>
+        <v>2.6460000000000003E-3</v>
       </c>
       <c r="D5" s="1">
         <f>SUM(D2:D4)/3</f>
-        <v>2.1729999999999999E-2</v>
+        <v>2.780666666666667E-3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="C5:I5" si="0">SUM(E2:E4)/3</f>
-        <v>6.5060000000000007E-2</v>
+        <f t="shared" ref="E5:G5" si="0">SUM(E2:E4)/3</f>
+        <v>2.8699999999999997E-3</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5020000000000003E-2</v>
+        <f>SUM(F2:F4)/3</f>
+        <v>2.8173333333333336E-3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2.9370000000000004E-2</v>
+        <v>2.934666666666667E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thela\Documents\UAB\PROYECTO ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71910D46-9564-48E9-BABD-5E6B6130B4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138FCC71-7841-41F7-A5B2-5E5ECA6881A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{03B1BA98-3DB3-4E0C-8E19-90AC5F975C37}"/>
+    <workbookView xWindow="33630" yWindow="20370" windowWidth="21735" windowHeight="13740" xr2:uid="{03B1BA98-3DB3-4E0C-8E19-90AC5F975C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>2000 vertices + 5000 aristas</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>b&amp;b3</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2A1BE8-A67F-4D2B-89EE-33CEC85DCA4A}">
-  <dimension ref="B2:P18"/>
+  <dimension ref="A2:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,39 +555,155 @@
         <v>2.934666666666667E-3</v>
       </c>
     </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>28819.599999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28819.599999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <f>IF(B9=C9,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>30352.799999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30352.799999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:D18" si="1">IF(B10=C10,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>37248.800000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37248.800000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>32643.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32643.7</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I13" s="1">
-        <v>2</v>
+      <c r="B13" s="1">
+        <v>44847.199999999997</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44847.199999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="1">
-        <v>5</v>
+      <c r="B14" s="1">
+        <v>32323.1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32323.1</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="1">
-        <v>10</v>
+      <c r="B15" s="1">
+        <v>21793.8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>21793.8</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="1">
-        <v>100</v>
+      <c r="B16" s="1">
+        <v>32208.7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32208.7</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>40060.800000000003</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40060.800000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>29867.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>29867.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>SUM(B9:B18)</f>
+        <v>330166</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM(C9:C18)</f>
+        <v>330166</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(D9:D18)/10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>((B19/C19)-1)*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
